--- a/out/test.xlsx
+++ b/out/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PROYECTO</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Año de valorizacion</t>
   </si>
   <si>
+    <t>Numero de valorizacion</t>
+  </si>
+  <si>
     <t>“RECONSTRUCCIÓN DE PISTAS Y VEREDAS EN LA AV. LAS TORRES TRAMO DESDE LA AV. CIRCUNVALACIÓN HASTA LA ALTURA DE LA QUINTA AV., L = 1.99 KM DISTRITO DE LURIGANCHO CHOSICA, LIMA – LIMA”. Con código único de inversión (IRI): 2498581</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -500,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -508,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -516,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -524,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -532,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -540,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -548,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -556,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -564,7 +570,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
